--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C19D26-8B50-456D-A1FE-B47F4039C78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29982F6B-47FD-4682-9977-1C447412A267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,14 +351,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,23 +682,23 @@
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="13">
         <v>42887</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
@@ -712,9 +712,9 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
@@ -724,9 +724,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
@@ -736,8 +736,8 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
@@ -752,9 +752,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -768,9 +768,9 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
@@ -780,11 +780,11 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -793,38 +793,38 @@
       <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -835,18 +835,18 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="3" t="s">
         <v>37</v>
       </c>
@@ -855,16 +855,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B3:B8"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" display="https://github.com/ENV790/ENV790_TimeSeriesAnalysis_Sp2022/" xr:uid="{F84A38A5-B39D-46C9-83A7-E3F743C96EC3}"/>
@@ -879,7 +879,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29982F6B-47FD-4682-9977-1C447412A267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDA594D-E13A-4A06-A090-CA921572B3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>Data Cleaning</t>
   </si>
@@ -236,12 +236,6 @@
     <t>Cleaning Erorrs</t>
   </si>
   <si>
-    <t>re-run Sums</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> overwrite files?</t>
-  </si>
-  <si>
     <t>Compare VPD, N&lt;S?, break starts, create new file with cleaned dat</t>
   </si>
   <si>
@@ -251,7 +245,10 @@
     <t>Check</t>
   </si>
   <si>
-    <t>Ongoing</t>
+    <t>Re-run sums</t>
+  </si>
+  <si>
+    <t>Daytime = 6:45-20:00</t>
   </si>
 </sst>
 </file>
@@ -351,14 +348,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -682,23 +679,23 @@
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>42887</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
@@ -712,9 +709,9 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
@@ -724,9 +721,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
@@ -736,8 +733,8 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
@@ -752,9 +749,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -768,9 +765,9 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
@@ -780,11 +777,11 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -793,38 +790,38 @@
       <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -835,18 +832,18 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="3" t="s">
         <v>37</v>
       </c>
@@ -855,16 +852,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B3:B8"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B3:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" display="https://github.com/ENV790/ENV790_TimeSeriesAnalysis_Sp2022/" xr:uid="{F84A38A5-B39D-46C9-83A7-E3F743C96EC3}"/>
@@ -878,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51B019-8F72-4AFD-A957-B1F60307B36F}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,7 +901,7 @@
         <v>24</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -919,7 +916,7 @@
         <v>46</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -934,7 +931,7 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -948,7 +945,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -963,7 +960,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -980,7 +977,7 @@
         <v>54</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -997,7 +994,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1011,41 +1008,41 @@
         <v>56</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="E9" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
+    </row>
+    <row r="11" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDA594D-E13A-4A06-A090-CA921572B3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FF83E6-BDCB-44E4-BBBD-E0328385517D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>Data Cleaning</t>
   </si>
@@ -164,9 +164,6 @@
     <t>https://github.com/AzuraLiu/MP.June.git</t>
   </si>
   <si>
-    <t>C:\Users\yliua\Desktop\MP.June\Data\Original\Shifted</t>
-  </si>
-  <si>
     <t>Sum by 24 hrs</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>Why first dataset adds i.. In front of first variable??</t>
   </si>
   <si>
-    <t>C:\Users\yliua\Desktop\MP.June\Data\Processed\KtoSap</t>
-  </si>
-  <si>
     <t>shift date and doy, add column "Index"</t>
   </si>
   <si>
@@ -206,9 +200,6 @@
     <t>Specifics &amp; Functions</t>
   </si>
   <si>
-    <t>C:\Users\yliua\Desktop\MP.June\Data\Processed\Sums</t>
-  </si>
-  <si>
     <t>Output path</t>
   </si>
   <si>
@@ -230,9 +221,6 @@
     <t>sort pairs, break by 10 days, graphed with VPD</t>
   </si>
   <si>
-    <t>C:\Users\yliua\Desktop\MP.June\Data\Plots\NS</t>
-  </si>
-  <si>
     <t>Cleaning Erorrs</t>
   </si>
   <si>
@@ -249,6 +237,36 @@
   </si>
   <si>
     <t>Daytime = 6:45-20:00</t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Sums</t>
+  </si>
+  <si>
+    <t>The csv files combines all three sum categories (day, night, 24hr)</t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Cleaned</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>Plots</t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Plots/NS/Cleaned</t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Plots/NS</t>
+  </si>
+  <si>
+    <t>Cleaned Sums</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Cleaned/Original</t>
   </si>
 </sst>
 </file>
@@ -320,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -348,14 +366,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -679,23 +700,23 @@
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="13">
         <v>42887</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
@@ -709,9 +730,9 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
@@ -721,9 +742,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
@@ -733,8 +754,8 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
@@ -749,9 +770,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -765,9 +786,9 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
@@ -777,11 +798,11 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -790,38 +811,38 @@
       <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -832,18 +853,18 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="3" t="s">
         <v>37</v>
       </c>
@@ -852,16 +873,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B3:B8"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" display="https://github.com/ENV790/ENV790_TimeSeriesAnalysis_Sp2022/" xr:uid="{F84A38A5-B39D-46C9-83A7-E3F743C96EC3}"/>
@@ -873,10 +894,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51B019-8F72-4AFD-A957-B1F60307B36F}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,19 +910,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -913,141 +934,184 @@
         <v>41</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>42</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>49</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="E7" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="C8" s="8"/>
       <c r="E8" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="C12" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="E12" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C14" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>70</v>
+      <c r="D15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{34DEF468-3F9D-45F7-9A73-DC2A75C17358}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{9303EFC0-E798-4CE4-A3ED-649753EFC15E}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{CC7C0E14-0CD9-4EA2-B597-3EA574252D04}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{912269A0-A8F7-49D8-B873-A2218CA490A6}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{6D73E7FC-2E08-4109-A997-9D286A22FF70}"/>
+    <hyperlink ref="C15" r:id="rId6" xr:uid="{2739A07B-A8F0-4541-9B04-5A3CADF6D506}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD21DBE5-7FA2-45B8-A961-398EC5D95A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72429CBF-3296-4C04-AF26-1252A84D0720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>Notes</t>
   </si>
@@ -155,6 +155,30 @@
   </si>
   <si>
     <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Cleaned/Original</t>
+  </si>
+  <si>
+    <t>Work plan updated</t>
+  </si>
+  <si>
+    <t>Took out first paragraph, arranged paragraphs…</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>gap filling</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>sum*15*60/1000?</t>
+  </si>
+  <si>
+    <t>Interpolated</t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Gap-Filled/Interpolated</t>
   </si>
 </sst>
 </file>
@@ -503,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51B019-8F72-4AFD-A957-B1F60307B36F}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,71 +680,103 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C14" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{34DEF468-3F9D-45F7-9A73-DC2A75C17358}"/>
-    <hyperlink ref="C12" r:id="rId2" xr:uid="{9303EFC0-E798-4CE4-A3ED-649753EFC15E}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{CC7C0E14-0CD9-4EA2-B597-3EA574252D04}"/>
-    <hyperlink ref="C14" r:id="rId4" xr:uid="{912269A0-A8F7-49D8-B873-A2218CA490A6}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{9303EFC0-E798-4CE4-A3ED-649753EFC15E}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{CC7C0E14-0CD9-4EA2-B597-3EA574252D04}"/>
+    <hyperlink ref="C13" r:id="rId4" xr:uid="{912269A0-A8F7-49D8-B873-A2218CA490A6}"/>
     <hyperlink ref="C9" r:id="rId5" xr:uid="{6D73E7FC-2E08-4109-A997-9D286A22FF70}"/>
-    <hyperlink ref="C15" r:id="rId6" xr:uid="{2739A07B-A8F0-4541-9B04-5A3CADF6D506}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{2739A07B-A8F0-4541-9B04-5A3CADF6D506}"/>
+    <hyperlink ref="C17" r:id="rId7" xr:uid="{31431EEB-CC65-4311-AC4B-D732E413AFA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72429CBF-3296-4C04-AF26-1252A84D0720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7D2A1D-0C2C-4AEE-8D36-D94425177D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifics" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>Notes</t>
   </si>
@@ -169,9 +169,6 @@
     <t>gap filling</t>
   </si>
   <si>
-    <t>in progress</t>
-  </si>
-  <si>
     <t>sum*15*60/1000?</t>
   </si>
   <si>
@@ -179,6 +176,18 @@
   </si>
   <si>
     <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Gap-Filled/Interpolated</t>
+  </si>
+  <si>
+    <t>Linear regression</t>
+  </si>
+  <si>
+    <t>sumed</t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Gap-Filled/Regressed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Gap-Filled/RegressedSums/Regressed </t>
   </si>
 </sst>
 </file>
@@ -527,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51B019-8F72-4AFD-A957-B1F60307B36F}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,36 +745,64 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="5" t="s">
+    <row r="17" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>44</v>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -776,7 +813,8 @@
     <hyperlink ref="C13" r:id="rId4" xr:uid="{912269A0-A8F7-49D8-B873-A2218CA490A6}"/>
     <hyperlink ref="C9" r:id="rId5" xr:uid="{6D73E7FC-2E08-4109-A997-9D286A22FF70}"/>
     <hyperlink ref="C14" r:id="rId6" xr:uid="{2739A07B-A8F0-4541-9B04-5A3CADF6D506}"/>
-    <hyperlink ref="C17" r:id="rId7" xr:uid="{31431EEB-CC65-4311-AC4B-D732E413AFA4}"/>
+    <hyperlink ref="C16" r:id="rId7" xr:uid="{31431EEB-CC65-4311-AC4B-D732E413AFA4}"/>
+    <hyperlink ref="C19" r:id="rId8" xr:uid="{FDB8FD52-0655-4418-88BD-4501487858BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7D2A1D-0C2C-4AEE-8D36-D94425177D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8267D2D1-C785-46B6-B8F8-D4C0B43112DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifics" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>Notes</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Gap-Filled/RegressedSums/Regressed </t>
+  </si>
+  <si>
+    <t>unit conversion sum*15*60/1000 kg/m^2/day</t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Sums/Converted</t>
   </si>
 </sst>
 </file>
@@ -238,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -255,6 +261,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -536,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51B019-8F72-4AFD-A957-B1F60307B36F}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,6 +812,20 @@
         <v>27</v>
       </c>
     </row>
+    <row r="20" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{34DEF468-3F9D-45F7-9A73-DC2A75C17358}"/>
@@ -815,6 +836,7 @@
     <hyperlink ref="C14" r:id="rId6" xr:uid="{2739A07B-A8F0-4541-9B04-5A3CADF6D506}"/>
     <hyperlink ref="C16" r:id="rId7" xr:uid="{31431EEB-CC65-4311-AC4B-D732E413AFA4}"/>
     <hyperlink ref="C19" r:id="rId8" xr:uid="{FDB8FD52-0655-4418-88BD-4501487858BD}"/>
+    <hyperlink ref="C20" r:id="rId9" xr:uid="{0D4C8CD9-A133-480A-AE2C-519B1DC81776}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8267D2D1-C785-46B6-B8F8-D4C0B43112DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D743CCA9-8C79-40A9-9F4F-7B6E3DA73146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Specifics" sheetId="2" r:id="rId1"/>
+    <sheet name="Main" sheetId="2" r:id="rId1"/>
+    <sheet name="Expansion" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
   <si>
     <t>Notes</t>
   </si>
@@ -194,6 +195,22 @@
   </si>
   <si>
     <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Sums/Converted</t>
+  </si>
+  <si>
+    <t>Code probes</t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Original/Coded</t>
+  </si>
+  <si>
+    <t>H/L Density; A/B/C/O Genotype; I/N Depth; S/N Direction; Tree #</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mutate_at(vars(7:38),
+            .funs = funs((.^1.231) * 119))</t>
+  </si>
+  <si>
+    <t>All 2017 data</t>
   </si>
 </sst>
 </file>
@@ -244,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -253,15 +270,29 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -545,288 +576,296 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51B019-8F72-4AFD-A957-B1F60307B36F}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="39" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="39" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="E8" s="1" t="s">
+      <c r="C8" s="4"/>
+      <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+      <c r="E16" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+      <c r="E18" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
+      <c r="E19" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="5" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A18:A20"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{34DEF468-3F9D-45F7-9A73-DC2A75C17358}"/>
     <hyperlink ref="C11" r:id="rId2" xr:uid="{9303EFC0-E798-4CE4-A3ED-649753EFC15E}"/>
@@ -840,4 +879,75 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C6CE90-F53C-41AD-8EA1-92869D4DF72B}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" style="1"/>
+    <col min="2" max="2" width="33.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.21875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="28.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A6D1ECBE-355E-4CC6-847B-F15E90886560}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D743CCA9-8C79-40A9-9F4F-7B6E3DA73146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38CD7CD-7289-43A8-88C8-4279667D3E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
     <sheet name="Expansion" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>Notes</t>
   </si>
@@ -211,6 +212,36 @@
   </si>
   <si>
     <t>All 2017 data</t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/KtoSap</t>
+  </si>
+  <si>
+    <t>Sums</t>
+  </si>
+  <si>
+    <t>Daily, daytime, &amp; night sums</t>
+  </si>
+  <si>
+    <t>Not cleaned</t>
+  </si>
+  <si>
+    <t>Missing S3 March, S4 May, all Oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Sums/Raw</t>
+  </si>
+  <si>
+    <t>All 2017 Data</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>LBON17 missing Jan &amp; Feb; HCON4 missing Dec</t>
   </si>
 </sst>
 </file>
@@ -576,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51B019-8F72-4AFD-A957-B1F60307B36F}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,10 +914,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C6CE90-F53C-41AD-8EA1-92869D4DF72B}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -935,6 +966,9 @@
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -943,10 +977,72 @@
       <c r="B4" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A6D1ECBE-355E-4CC6-847B-F15E90886560}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{F6B9241A-E338-4E89-B0A8-FF180EDF3643}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{B1B99258-8151-4E87-857B-09BAF5A489A1}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{0A2C0173-F8CE-431A-86ED-BFBA82DABF03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38CD7CD-7289-43A8-88C8-4279667D3E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB2B0AF-A334-4D62-A14D-BEC3B45BDB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
     <sheet name="Expansion" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
   <si>
     <t>Notes</t>
   </si>
@@ -238,10 +237,46 @@
     <t>All 2017 Data</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>LBON17 missing Jan &amp; Feb; HCON4 missing Dec</t>
+  </si>
+  <si>
+    <t>Statistical Analysis</t>
+  </si>
+  <si>
+    <t>N vs S</t>
+  </si>
+  <si>
+    <t>Unit conversion</t>
+  </si>
+  <si>
+    <t>Sapflux*Sapwood area=&gt;sapflow</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Interpolation</t>
+  </si>
+  <si>
+    <t>sapwood area analysis</t>
+  </si>
+  <si>
+    <t>found bug in code; previous analysis did not include inner probe</t>
+  </si>
+  <si>
+    <t>Data cleaning &amp; wrangling for inner probes, updated in previous files</t>
+  </si>
+  <si>
+    <t>plot (Q on S4.7.HAO6.1 &amp; 8.1)</t>
+  </si>
+  <si>
+    <t>cleaned</t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Cleaned/Raw</t>
+  </si>
+  <si>
+    <t>Gap-filling</t>
   </si>
 </sst>
 </file>
@@ -265,7 +300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +310,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -321,8 +362,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -605,17 +670,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51B019-8F72-4AFD-A957-B1F60307B36F}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="39" style="5" customWidth="1"/>
     <col min="3" max="3" width="30.44140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="5" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
@@ -845,16 +910,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="A18" s="14"/>
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>38</v>
@@ -864,12 +943,12 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="5" t="s">
-        <v>48</v>
+      <c r="A19" s="14"/>
+      <c r="B19" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>38</v>
@@ -878,24 +957,53 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="7" t="s">
+    <row r="20" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:5" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>27</v>
+      <c r="D21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A18:A20"/>
+  <mergeCells count="2">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{34DEF468-3F9D-45F7-9A73-DC2A75C17358}"/>
@@ -905,8 +1013,9 @@
     <hyperlink ref="C9" r:id="rId5" xr:uid="{6D73E7FC-2E08-4109-A997-9D286A22FF70}"/>
     <hyperlink ref="C14" r:id="rId6" xr:uid="{2739A07B-A8F0-4541-9B04-5A3CADF6D506}"/>
     <hyperlink ref="C16" r:id="rId7" xr:uid="{31431EEB-CC65-4311-AC4B-D732E413AFA4}"/>
-    <hyperlink ref="C19" r:id="rId8" xr:uid="{FDB8FD52-0655-4418-88BD-4501487858BD}"/>
-    <hyperlink ref="C20" r:id="rId9" xr:uid="{0D4C8CD9-A133-480A-AE2C-519B1DC81776}"/>
+    <hyperlink ref="C18" r:id="rId8" xr:uid="{FDB8FD52-0655-4418-88BD-4501487858BD}"/>
+    <hyperlink ref="C19" r:id="rId9" xr:uid="{0D4C8CD9-A133-480A-AE2C-519B1DC81776}"/>
+    <hyperlink ref="C21" r:id="rId10" xr:uid="{BE237272-6F1E-4668-AF35-AF10F261DC1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -914,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C6CE90-F53C-41AD-8EA1-92869D4DF72B}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,34 +1124,87 @@
         <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:5" s="13" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D13" s="1" t="s">
+      <c r="C8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A6D1ECBE-355E-4CC6-847B-F15E90886560}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{F6B9241A-E338-4E89-B0A8-FF180EDF3643}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{B1B99258-8151-4E87-857B-09BAF5A489A1}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{0A2C0173-F8CE-431A-86ED-BFBA82DABF03}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{6FF6C80D-3FDF-471A-9F1C-530DEA0E0B30}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{8713306F-CE71-4FB7-AEDB-D068DCBAF5C4}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{A5BF830D-C8C3-4BDF-A135-C1566BEF6DB6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB2B0AF-A334-4D62-A14D-BEC3B45BDB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAD4E9F-DC59-4317-9C6E-C9665A8DFB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
   <si>
     <t>Notes</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Gap-Filled/RegressedSums/Regressed </t>
-  </si>
-  <si>
-    <t>unit conversion sum*15*60/1000 kg/m^2/day</t>
   </si>
   <si>
     <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Sums/Converted</t>
@@ -240,12 +237,6 @@
     <t>LBON17 missing Jan &amp; Feb; HCON4 missing Dec</t>
   </si>
   <si>
-    <t>Statistical Analysis</t>
-  </si>
-  <si>
-    <t>N vs S</t>
-  </si>
-  <si>
     <t>Unit conversion</t>
   </si>
   <si>
@@ -277,6 +268,36 @@
   </si>
   <si>
     <t>Gap-filling</t>
+  </si>
+  <si>
+    <t>Cross section</t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Sapwood</t>
+  </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>Perfect relationship</t>
+  </si>
+  <si>
+    <t>Cross_Section.xlsx; Check calc</t>
+  </si>
+  <si>
+    <t>IO_Plot.PNG</t>
+  </si>
+  <si>
+    <t>unit conversion sum*15*60/1000 kg/day</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Sapflow</t>
+  </si>
+  <si>
+    <t>area specific,  sapflow, whole tree</t>
   </si>
 </sst>
 </file>
@@ -333,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -374,6 +395,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -381,12 +405,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -670,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51B019-8F72-4AFD-A957-B1F60307B36F}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,7 +705,8 @@
     <col min="1" max="2" width="39" style="5" customWidth="1"/>
     <col min="3" max="3" width="30.44140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="5"/>
+    <col min="5" max="5" width="10.88671875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -911,7 +936,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -928,7 +953,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="5" t="s">
         <v>48</v>
       </c>
@@ -943,12 +968,12 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>38</v>
@@ -959,51 +984,75 @@
     </row>
     <row r="20" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:5" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>73</v>
+      <c r="A21" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+    <row r="22" spans="1:5" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>68</v>
+      <c r="C24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{34DEF468-3F9D-45F7-9A73-DC2A75C17358}"/>
@@ -1016,6 +1065,9 @@
     <hyperlink ref="C18" r:id="rId8" xr:uid="{FDB8FD52-0655-4418-88BD-4501487858BD}"/>
     <hyperlink ref="C19" r:id="rId9" xr:uid="{0D4C8CD9-A133-480A-AE2C-519B1DC81776}"/>
     <hyperlink ref="C21" r:id="rId10" xr:uid="{BE237272-6F1E-4668-AF35-AF10F261DC1B}"/>
+    <hyperlink ref="C22" r:id="rId11" xr:uid="{ACE6616C-8310-4D53-B467-75C2C122B9EB}"/>
+    <hyperlink ref="C23" r:id="rId12" xr:uid="{4194C87A-A752-4C7F-BA15-BAD5AC403A7F}"/>
+    <hyperlink ref="C24" r:id="rId13" xr:uid="{DA715786-006E-4C09-9F0A-7ACEEF54437C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1025,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C6CE90-F53C-41AD-8EA1-92869D4DF72B}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1056,16 +1108,16 @@
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1076,7 +1128,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1084,33 +1136,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1124,10 +1176,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="13" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1146,47 +1198,47 @@
         <v>36</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="14"/>
+        <v>75</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAD4E9F-DC59-4317-9C6E-C9665A8DFB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E01358-7726-4B0C-B2B7-DF43EEF73D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
   <si>
     <t>Notes</t>
   </si>
@@ -298,6 +298,18 @@
   </si>
   <si>
     <t>area specific,  sapflow, whole tree</t>
+  </si>
+  <si>
+    <t>Fixed Sapflow Calculation</t>
+  </si>
+  <si>
+    <t>Sapflow graphs</t>
+  </si>
+  <si>
+    <t>By interval &amp; by depth</t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Sapflow/plots</t>
   </si>
 </sst>
 </file>
@@ -694,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51B019-8F72-4AFD-A957-B1F60307B36F}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -982,7 +994,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:5" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>70</v>
@@ -1047,6 +1058,23 @@
       </c>
       <c r="E24" s="5" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1068,6 +1096,7 @@
     <hyperlink ref="C22" r:id="rId11" xr:uid="{ACE6616C-8310-4D53-B467-75C2C122B9EB}"/>
     <hyperlink ref="C23" r:id="rId12" xr:uid="{4194C87A-A752-4C7F-BA15-BAD5AC403A7F}"/>
     <hyperlink ref="C24" r:id="rId13" xr:uid="{DA715786-006E-4C09-9F0A-7ACEEF54437C}"/>
+    <hyperlink ref="C26" r:id="rId14" xr:uid="{C5F7FDAE-9FB4-4049-AA84-FEC1151A675A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1078,7 +1107,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E01358-7726-4B0C-B2B7-DF43EEF73D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EE2B09-442D-432D-B8F9-B9950EEE05B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2895" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>Notes</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Sapflow/plots</t>
+  </si>
+  <si>
+    <t>2017 July</t>
   </si>
 </sst>
 </file>
@@ -708,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51B019-8F72-4AFD-A957-B1F60307B36F}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,20 +1064,21 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>89</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1100,7 @@
     <hyperlink ref="C22" r:id="rId11" xr:uid="{ACE6616C-8310-4D53-B467-75C2C122B9EB}"/>
     <hyperlink ref="C23" r:id="rId12" xr:uid="{4194C87A-A752-4C7F-BA15-BAD5AC403A7F}"/>
     <hyperlink ref="C24" r:id="rId13" xr:uid="{DA715786-006E-4C09-9F0A-7ACEEF54437C}"/>
-    <hyperlink ref="C26" r:id="rId14" xr:uid="{C5F7FDAE-9FB4-4049-AA84-FEC1151A675A}"/>
+    <hyperlink ref="C27" r:id="rId14" xr:uid="{1D586E15-4E53-43F2-A086-3471FFCFD080}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1104,9 +1108,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C6CE90-F53C-41AD-8EA1-92869D4DF72B}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1211,81 +1215,89 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="13" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>74</v>
-      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="1" t="s">
+    <row r="11" spans="1:5" s="13" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A6D1ECBE-355E-4CC6-847B-F15E90886560}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{F6B9241A-E338-4E89-B0A8-FF180EDF3643}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{B1B99258-8151-4E87-857B-09BAF5A489A1}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{0A2C0173-F8CE-431A-86ED-BFBA82DABF03}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{6FF6C80D-3FDF-471A-9F1C-530DEA0E0B30}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{8713306F-CE71-4FB7-AEDB-D068DCBAF5C4}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{A5BF830D-C8C3-4BDF-A135-C1566BEF6DB6}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{6FF6C80D-3FDF-471A-9F1C-530DEA0E0B30}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{8713306F-CE71-4FB7-AEDB-D068DCBAF5C4}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{A5BF830D-C8C3-4BDF-A135-C1566BEF6DB6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EE2B09-442D-432D-B8F9-B9950EEE05B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E28FFCF-69A7-457B-AB4F-EEA0B9D15011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2895" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="94">
   <si>
     <t>Notes</t>
   </si>
@@ -312,7 +312,13 @@
     <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Sapflow/plots</t>
   </si>
   <si>
-    <t>2017 July</t>
+    <t>Regressed</t>
+  </si>
+  <si>
+    <t>Regressed, converted (kg/cm2/day)</t>
+  </si>
+  <si>
+    <t>Sapflow</t>
   </si>
 </sst>
 </file>
@@ -711,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51B019-8F72-4AFD-A957-B1F60307B36F}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:D33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1117,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1269,15 +1275,38 @@
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="C12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>62</v>
       </c>
@@ -1298,6 +1327,8 @@
     <hyperlink ref="C7" r:id="rId5" xr:uid="{6FF6C80D-3FDF-471A-9F1C-530DEA0E0B30}"/>
     <hyperlink ref="C8" r:id="rId6" xr:uid="{8713306F-CE71-4FB7-AEDB-D068DCBAF5C4}"/>
     <hyperlink ref="C10" r:id="rId7" xr:uid="{A5BF830D-C8C3-4BDF-A135-C1566BEF6DB6}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{5C41F434-3C93-443B-B68D-F8220D2A81C2}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{9AECA932-3B9A-4400-8AFB-F4B7E1D6B8DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E28FFCF-69A7-457B-AB4F-EEA0B9D15011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBC8BEA-8716-40CE-8C76-2A03DF7C277A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2895" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="94">
   <si>
     <t>Notes</t>
   </si>
@@ -325,7 +325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +337,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -718,7 +724,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C6CE90-F53C-41AD-8EA1-92869D4DF72B}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1307,8 +1313,25 @@
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="B14" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1319,6 +1342,7 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A6D1ECBE-355E-4CC6-847B-F15E90886560}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{F6B9241A-E338-4E89-B0A8-FF180EDF3643}"/>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBC8BEA-8716-40CE-8C76-2A03DF7C277A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD7045F-F045-4CE6-8B19-4697072A779A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2895" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="97">
   <si>
     <t>Notes</t>
   </si>
@@ -319,6 +319,15 @@
   </si>
   <si>
     <t>Sapflow</t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Sapflow/Jul17</t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Sapflow/Jul17/plots</t>
+  </si>
+  <si>
+    <t>Sapflux*Sapwood area=&gt;sapflow (kg/day)</t>
   </si>
 </sst>
 </file>
@@ -1122,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C6CE90-F53C-41AD-8EA1-92869D4DF72B}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1309,12 +1318,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>67</v>
+        <v>96</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>62</v>
@@ -1323,12 +1335,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>89</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>68</v>
@@ -1353,6 +1368,8 @@
     <hyperlink ref="C10" r:id="rId7" xr:uid="{A5BF830D-C8C3-4BDF-A135-C1566BEF6DB6}"/>
     <hyperlink ref="C13" r:id="rId8" xr:uid="{5C41F434-3C93-443B-B68D-F8220D2A81C2}"/>
     <hyperlink ref="C12" r:id="rId9" xr:uid="{9AECA932-3B9A-4400-8AFB-F4B7E1D6B8DB}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{2FF1615D-D70A-4F13-B884-54EEEE9D98CE}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{A10D26B0-23A3-402B-B7F8-9F29C72F1D4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD7045F-F045-4CE6-8B19-4697072A779A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220CBD65-466B-4A4A-B2B2-9D40B41E3D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
   <si>
     <t>Notes</t>
   </si>
@@ -309,9 +309,6 @@
     <t>By interval &amp; by depth</t>
   </si>
   <si>
-    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Sapflow/plots</t>
-  </si>
-  <si>
     <t>Regressed</t>
   </si>
   <si>
@@ -328,6 +325,33 @@
   </si>
   <si>
     <t>Sapflux*Sapwood area=&gt;sapflow (kg/day)</t>
+  </si>
+  <si>
+    <t>new plots besides pairs</t>
+  </si>
+  <si>
+    <t>June,July,Aug</t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Plots/Others</t>
+  </si>
+  <si>
+    <t>Error check August</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Sapflow/plots/byCrossSection</t>
+  </si>
+  <si>
+    <t>By depth</t>
+  </si>
+  <si>
+    <t>Cross Section Analysis</t>
+  </si>
+  <si>
+    <t>generated daily diameter &amp; sapwood area</t>
   </si>
 </sst>
 </file>
@@ -730,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51B019-8F72-4AFD-A957-B1F60307B36F}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1096,10 +1120,21 @@
         <v>88</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1122,6 +1157,7 @@
     <hyperlink ref="C23" r:id="rId12" xr:uid="{4194C87A-A752-4C7F-BA15-BAD5AC403A7F}"/>
     <hyperlink ref="C24" r:id="rId13" xr:uid="{DA715786-006E-4C09-9F0A-7ACEEF54437C}"/>
     <hyperlink ref="C27" r:id="rId14" xr:uid="{1D586E15-4E53-43F2-A086-3471FFCFD080}"/>
+    <hyperlink ref="C28" r:id="rId15" xr:uid="{71778FCA-24E3-4D73-99EE-B3BE5712C1E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1129,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C6CE90-F53C-41AD-8EA1-92869D4DF72B}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1285,20 +1321,29 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="13" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>68</v>
@@ -1306,13 +1351,16 @@
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>51</v>
+      <c r="B13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>68</v>
@@ -1320,33 +1368,43 @@
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>96</v>
+        <v>88</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E14" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>68</v>
+    <row r="15" spans="1:5" s="13" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1366,10 +1424,11 @@
     <hyperlink ref="C7" r:id="rId5" xr:uid="{6FF6C80D-3FDF-471A-9F1C-530DEA0E0B30}"/>
     <hyperlink ref="C8" r:id="rId6" xr:uid="{8713306F-CE71-4FB7-AEDB-D068DCBAF5C4}"/>
     <hyperlink ref="C10" r:id="rId7" xr:uid="{A5BF830D-C8C3-4BDF-A135-C1566BEF6DB6}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{5C41F434-3C93-443B-B68D-F8220D2A81C2}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{9AECA932-3B9A-4400-8AFB-F4B7E1D6B8DB}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{2FF1615D-D70A-4F13-B884-54EEEE9D98CE}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{A10D26B0-23A3-402B-B7F8-9F29C72F1D4A}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{5C41F434-3C93-443B-B68D-F8220D2A81C2}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{9AECA932-3B9A-4400-8AFB-F4B7E1D6B8DB}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{2FF1615D-D70A-4F13-B884-54EEEE9D98CE}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{A10D26B0-23A3-402B-B7F8-9F29C72F1D4A}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{1E958431-CBCA-4495-8B43-5E2FFE302A0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220CBD65-466B-4A4A-B2B2-9D40B41E3D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A546C5-C669-4BBC-A7EB-D995969CDE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2895" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -342,9 +342,6 @@
     <t>Aug</t>
   </si>
   <si>
-    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Sapflow/plots/byCrossSection</t>
-  </si>
-  <si>
     <t>By depth</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>generated daily diameter &amp; sapwood area</t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Sapflow/Jun17/plots/byCrossSection</t>
   </si>
 </sst>
 </file>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51B019-8F72-4AFD-A957-B1F60307B36F}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1120,18 +1120,18 @@
         <v>88</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>78</v>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A546C5-C669-4BBC-A7EB-D995969CDE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E529A534-A80B-4C0C-A6B1-7554620C4324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2895" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="109">
   <si>
     <t>Notes</t>
   </si>
@@ -352,6 +352,18 @@
   </si>
   <si>
     <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Sapflow/Jun17/plots/byCrossSection</t>
+  </si>
+  <si>
+    <t>Plot Level Sapflow</t>
+  </si>
+  <si>
+    <t>Calculated sectional area sums across plots</t>
+  </si>
+  <si>
+    <t>July Sectional Sapflow (*sapflux/10000)</t>
+  </si>
+  <si>
+    <t>Graphs</t>
   </si>
 </sst>
 </file>
@@ -754,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51B019-8F72-4AFD-A957-B1F60307B36F}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,6 +1147,25 @@
       </c>
       <c r="C28" s="7" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E529A534-A80B-4C0C-A6B1-7554620C4324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335A92B8-3B7F-42B5-A139-23FE28F6DCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2895" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2895" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="118">
   <si>
     <t>Notes</t>
   </si>
@@ -360,10 +360,37 @@
     <t>Calculated sectional area sums across plots</t>
   </si>
   <si>
-    <t>July Sectional Sapflow (*sapflux/10000)</t>
-  </si>
-  <si>
     <t>Graphs</t>
+  </si>
+  <si>
+    <t>https://github.com/AzuraLiu/MP.June/tree/main/Data/Processed/Sapflow/Jul17/SapflowGraphs</t>
+  </si>
+  <si>
+    <t>I/O/D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July Sectional Sapflow </t>
+  </si>
+  <si>
+    <t>averaged probe across population, then *sapflux/10000</t>
+  </si>
+  <si>
+    <t>July plot level sapflow by section with VPD</t>
+  </si>
+  <si>
+    <t>Aug data ready</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>System 2 shut down, LBOS10, LBIS10 missing whole month</t>
+  </si>
+  <si>
+    <t>Combined Metasheets</t>
+  </si>
+  <si>
+    <t>May, Jun,  Jul,Aug</t>
   </si>
 </sst>
 </file>
@@ -768,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51B019-8F72-4AFD-A957-B1F60307B36F}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1126,6 +1153,9 @@
         <v>87</v>
       </c>
       <c r="C26" s="7"/>
+      <c r="E26" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -1137,6 +1167,9 @@
       <c r="C27" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="E27" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -1148,24 +1181,54 @@
       <c r="C28" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="E28" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="29" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="7" t="s">
         <v>108</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1189,6 +1252,9 @@
     <hyperlink ref="C24" r:id="rId13" xr:uid="{DA715786-006E-4C09-9F0A-7ACEEF54437C}"/>
     <hyperlink ref="C27" r:id="rId14" xr:uid="{1D586E15-4E53-43F2-A086-3471FFCFD080}"/>
     <hyperlink ref="C28" r:id="rId15" xr:uid="{71778FCA-24E3-4D73-99EE-B3BE5712C1E1}"/>
+    <hyperlink ref="C32" r:id="rId16" xr:uid="{FFBDFE5A-F8CC-477B-858C-67737A0E76B3}"/>
+    <hyperlink ref="C31" r:id="rId17" xr:uid="{1591CCC2-7440-4551-A3ED-435E5608CB92}"/>
+    <hyperlink ref="C30" r:id="rId18" xr:uid="{D6450849-BA59-4841-96DB-21439FBF2C20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1196,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C6CE90-F53C-41AD-8EA1-92869D4DF72B}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1411,31 +1477,58 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="13" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>98</v>
+        <v>76</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="1" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="13" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1459,7 +1552,9 @@
     <hyperlink ref="C11" r:id="rId9" xr:uid="{9AECA932-3B9A-4400-8AFB-F4B7E1D6B8DB}"/>
     <hyperlink ref="C13" r:id="rId10" xr:uid="{2FF1615D-D70A-4F13-B884-54EEEE9D98CE}"/>
     <hyperlink ref="C14" r:id="rId11" xr:uid="{A10D26B0-23A3-402B-B7F8-9F29C72F1D4A}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{1E958431-CBCA-4495-8B43-5E2FFE302A0C}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{1E958431-CBCA-4495-8B43-5E2FFE302A0C}"/>
+    <hyperlink ref="C19" r:id="rId13" xr:uid="{632971B9-E292-422C-A7B4-8D91AB1AD9AB}"/>
+    <hyperlink ref="C20" r:id="rId14" xr:uid="{A3CFE94F-9B7B-4177-9110-A6C5D372E9E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335A92B8-3B7F-42B5-A139-23FE28F6DCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D090972F-0DFF-4280-ADEB-57655EBC8172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2895" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="121">
   <si>
     <t>Notes</t>
   </si>
@@ -384,13 +384,22 @@
     <t>May</t>
   </si>
   <si>
-    <t>System 2 shut down, LBOS10, LBIS10 missing whole month</t>
-  </si>
-  <si>
     <t>Combined Metasheets</t>
   </si>
   <si>
     <t>May, Jun,  Jul,Aug</t>
+  </si>
+  <si>
+    <t>System 2 shut down, S3 LBOS10, LBIS10 missing whole month</t>
+  </si>
+  <si>
+    <t>Plot level sapflow</t>
+  </si>
+  <si>
+    <t>Separated 4 blocks (4*8)</t>
+  </si>
+  <si>
+    <t>Updated graphs</t>
   </si>
 </sst>
 </file>
@@ -793,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51B019-8F72-4AFD-A957-B1F60307B36F}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1147,25 +1156,38 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="E25" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="E26" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>84</v>
@@ -1173,62 +1195,67 @@
     </row>
     <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="D28" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="E28" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="B30" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="7" t="s">
+    <row r="31" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="7" t="s">
+    </row>
+    <row r="33" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1250,11 +1277,13 @@
     <hyperlink ref="C22" r:id="rId11" xr:uid="{ACE6616C-8310-4D53-B467-75C2C122B9EB}"/>
     <hyperlink ref="C23" r:id="rId12" xr:uid="{4194C87A-A752-4C7F-BA15-BAD5AC403A7F}"/>
     <hyperlink ref="C24" r:id="rId13" xr:uid="{DA715786-006E-4C09-9F0A-7ACEEF54437C}"/>
-    <hyperlink ref="C27" r:id="rId14" xr:uid="{1D586E15-4E53-43F2-A086-3471FFCFD080}"/>
-    <hyperlink ref="C28" r:id="rId15" xr:uid="{71778FCA-24E3-4D73-99EE-B3BE5712C1E1}"/>
-    <hyperlink ref="C32" r:id="rId16" xr:uid="{FFBDFE5A-F8CC-477B-858C-67737A0E76B3}"/>
-    <hyperlink ref="C31" r:id="rId17" xr:uid="{1591CCC2-7440-4551-A3ED-435E5608CB92}"/>
-    <hyperlink ref="C30" r:id="rId18" xr:uid="{D6450849-BA59-4841-96DB-21439FBF2C20}"/>
+    <hyperlink ref="C26" r:id="rId14" xr:uid="{1D586E15-4E53-43F2-A086-3471FFCFD080}"/>
+    <hyperlink ref="C27" r:id="rId15" xr:uid="{71778FCA-24E3-4D73-99EE-B3BE5712C1E1}"/>
+    <hyperlink ref="C30" r:id="rId16" xr:uid="{FFBDFE5A-F8CC-477B-858C-67737A0E76B3}"/>
+    <hyperlink ref="C29" r:id="rId17" xr:uid="{1591CCC2-7440-4551-A3ED-435E5608CB92}"/>
+    <hyperlink ref="C28" r:id="rId18" xr:uid="{D6450849-BA59-4841-96DB-21439FBF2C20}"/>
+    <hyperlink ref="C32" r:id="rId19" xr:uid="{E4AF83F7-FEEF-489C-B498-D87DCDD3EE08}"/>
+    <hyperlink ref="C33" r:id="rId20" xr:uid="{98741C70-5CD6-48AA-9B63-8110AAA014C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1264,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C6CE90-F53C-41AD-8EA1-92869D4DF72B}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1517,18 +1546,18 @@
         <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D090972F-0DFF-4280-ADEB-57655EBC8172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDA28E0-2AA2-4D3E-976C-E0C1E53CB280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2895" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -462,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -491,9 +491,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -503,13 +500,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -804,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51B019-8F72-4AFD-A957-B1F60307B36F}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,7 +1038,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1061,7 +1055,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="5" t="s">
         <v>48</v>
       </c>
@@ -1076,7 +1070,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="9" t="s">
         <v>83</v>
       </c>
@@ -1090,60 +1084,60 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="10" t="s">
+      <c r="E21" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="E22" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1399,10 +1393,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1411,27 +1405,27 @@
       <c r="D7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="15"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1479,7 +1473,7 @@
       <c r="A13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1528,10 +1522,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="13" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
+    <row r="17" spans="1:4" s="12" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDA28E0-2AA2-4D3E-976C-E0C1E53CB280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6BD5C5-9D14-4CD0-A9A5-9A2F36A0C475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2895" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="127">
   <si>
     <t>Notes</t>
   </si>
@@ -400,6 +400,24 @@
   </si>
   <si>
     <t>Updated graphs</t>
+  </si>
+  <si>
+    <t>vs VPD graph</t>
+  </si>
+  <si>
+    <t>Sept</t>
+  </si>
+  <si>
+    <t>fixed vs vpd graph</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Sept dat ready</t>
+  </si>
+  <si>
+    <t>Literature unit conversion</t>
   </si>
 </sst>
 </file>
@@ -796,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51B019-8F72-4AFD-A957-B1F60307B36F}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,24 +1250,42 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="B32" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>108</v>
+      <c r="B35" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1276,8 +1312,8 @@
     <hyperlink ref="C30" r:id="rId16" xr:uid="{FFBDFE5A-F8CC-477B-858C-67737A0E76B3}"/>
     <hyperlink ref="C29" r:id="rId17" xr:uid="{1591CCC2-7440-4551-A3ED-435E5608CB92}"/>
     <hyperlink ref="C28" r:id="rId18" xr:uid="{D6450849-BA59-4841-96DB-21439FBF2C20}"/>
-    <hyperlink ref="C32" r:id="rId19" xr:uid="{E4AF83F7-FEEF-489C-B498-D87DCDD3EE08}"/>
-    <hyperlink ref="C33" r:id="rId20" xr:uid="{98741C70-5CD6-48AA-9B63-8110AAA014C6}"/>
+    <hyperlink ref="C31" r:id="rId19" xr:uid="{E4AF83F7-FEEF-489C-B498-D87DCDD3EE08}"/>
+    <hyperlink ref="C32" r:id="rId20" xr:uid="{98741C70-5CD6-48AA-9B63-8110AAA014C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1285,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C6CE90-F53C-41AD-8EA1-92869D4DF72B}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1522,11 +1558,6 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="12" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-    </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>113</v>
@@ -1552,6 +1583,26 @@
       </c>
       <c r="D20" s="1" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="12" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Workflow.xlsx
+++ b/Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6BD5C5-9D14-4CD0-A9A5-9A2F36A0C475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97843B0-EFA2-4602-A96C-6A3836BD5311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2895" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="131">
   <si>
     <t>Notes</t>
   </si>
@@ -418,6 +418,18 @@
   </si>
   <si>
     <t>Literature unit conversion</t>
+  </si>
+  <si>
+    <t>daytime sapflow</t>
+  </si>
+  <si>
+    <t>treatment mean vs vpd plot</t>
+  </si>
+  <si>
+    <t>plot sapwood area distribution</t>
+  </si>
+  <si>
+    <t>5-9 summed, july gap filled</t>
   </si>
 </sst>
 </file>
@@ -814,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA51B019-8F72-4AFD-A957-B1F60307B36F}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1274,18 +1286,36 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="B35" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="5" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1323,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C6CE90-F53C-41AD-8EA1-92869D4DF72B}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1590,20 +1620,20 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="12" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
         <v>126</v>
       </c>
+    </row>
+    <row r="24" spans="1:4" s="12" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
